--- a/RetroMeterWing v03 BOM.xlsx
+++ b/RetroMeterWing v03 BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan\Desktop\2018-08-18 Retro Meter v02\v03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122D40FA-BA4A-4B22-BE91-0DC3F07288C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A911B1-CC54-4932-9AE2-76F433C31252}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21585" windowHeight="11520" xr2:uid="{5DEB0F33-E1B3-4ACB-BC67-13A94803B65A}"/>
   </bookViews>
@@ -72,9 +72,6 @@
     <t>10uF</t>
   </si>
   <si>
-    <t>Male pin headers, 0.1" spacing</t>
-  </si>
-  <si>
     <t>10K ohms</t>
   </si>
   <si>
@@ -159,9 +156,6 @@
     <t>C3</t>
   </si>
   <si>
-    <t>Male pin or socket headers, 0.1" spacing</t>
-  </si>
-  <si>
     <t>133K ohms</t>
   </si>
   <si>
@@ -217,6 +211,12 @@
   </si>
   <si>
     <t>754-1651-1-ND</t>
+  </si>
+  <si>
+    <t>Feather male pin or socket headers, 0.1" spacing</t>
+  </si>
+  <si>
+    <t>Various male pin headers, 0.1" spacing</t>
   </si>
 </sst>
 </file>
@@ -608,7 +608,7 @@
   <dimension ref="B2:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,7 +625,7 @@
   <sheetData>
     <row r="2" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
@@ -650,7 +650,7 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -659,10 +659,10 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -676,27 +676,27 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -707,13 +707,13 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -721,36 +721,36 @@
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -761,18 +761,18 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -784,106 +784,106 @@
         <v>12</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
         <v>35</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" t="s">
-        <v>36</v>
-      </c>
       <c r="G15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
         <v>40</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>41</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s">
         <v>38</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" t="s">
-        <v>39</v>
       </c>
       <c r="G18" s="2"/>
     </row>
@@ -895,30 +895,30 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" t="s">
         <v>32</v>
       </c>
-      <c r="F19" t="s">
-        <v>33</v>
-      </c>
       <c r="G19" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D20">
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
